--- a/autopytest/testcase/carsir_api_testcase.xlsx
+++ b/autopytest/testcase/carsir_api_testcase.xlsx
@@ -9,36 +9,43 @@
   <sheets>
     <sheet name="API_SETTING" sheetId="2" r:id="rId1"/>
     <sheet name="CARSIR_APP" sheetId="1" r:id="rId2"/>
+    <sheet name="CENTER_APP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
-  <si>
-    <t>CarSir_Setting_Key</t>
-  </si>
-  <si>
-    <t>CarSir_Setting_value</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+  <si>
+    <t>Server_Name</t>
   </si>
   <si>
     <t>HOST</t>
   </si>
   <si>
-    <t>test.carsir.xin</t>
-  </si>
-  <si>
-    <t>carsir_header</t>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>CarSir</t>
+  </si>
+  <si>
+    <t>https://test.carsir.xin/</t>
   </si>
   <si>
     <t>{"Content-Type":"application/json","grp":"carsir_app","version":"20191115"}</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>phone</t>
+    <t>18092707495</t>
+  </si>
+  <si>
+    <t>Center</t>
   </si>
   <si>
     <t>用例编号</t>
@@ -50,9 +57,6 @@
     <t>请求方式</t>
   </si>
   <si>
-    <t>Token</t>
-  </si>
-  <si>
     <t>接口请求地址</t>
   </si>
   <si>
@@ -83,13 +87,25 @@
     <t>yes</t>
   </si>
   <si>
-    <t>/olympic/api-resource/sms/customer/login/sendCode?mobile=${phone}</t>
+    <t>olympic/api-resource/sms/customer/login/sendCode?mobile=18092707495</t>
   </si>
   <si>
     <t>self.assertEqual("成功",responsemsg["message"])</t>
   </si>
   <si>
     <t>{"code":200,"data":true,"message":"成功","success":true}</t>
+  </si>
+  <si>
+    <t>API_CarSir_GetCode_02</t>
+  </si>
+  <si>
+    <t>API_Center_GetCode_01</t>
+  </si>
+  <si>
+    <t>Center获取验证码-手机号为空</t>
+  </si>
+  <si>
+    <t>/olympic/api-resource</t>
   </si>
 </sst>
 </file>
@@ -97,8 +113,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -119,8 +135,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,99 +201,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,21 +270,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -270,187 +286,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,11 +517,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,22 +536,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,6 +556,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,28 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,19 +625,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,112 +646,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -764,8 +780,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1115,56 +1134,71 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="76.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="12.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="25.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="84.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="12.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="12.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>18092707495</v>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://test.carsir.xin/"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://test.carsir.xin/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1173,10 +1207,126 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54545454545454" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.09090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="69.4545454545455" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67" style="1" customWidth="1"/>
+    <col min="7" max="7" width="52.4454545454545" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5545454545455" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="43" customHeight="1" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="43" customHeight="1" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1194,66 +1344,66 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="/olympic/api-resource/sms/customer/login/sendCode?mobile=${phone}"/>
+    <hyperlink ref="E2" r:id="rId1" display="/olympic/api-resource"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
